--- a/meta/3-c-1.xlsx
+++ b/meta/3-c-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Press\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189942EA-5885-4011-A1C2-CE9250B005DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.с.1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">http://www.who.int/hrh/statistics/hwfstats/en/ </t>
-  </si>
-  <si>
-    <t>URL:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>8. Ссылки и документация</t>
   </si>
@@ -167,11 +162,14 @@
   <si>
     <t>Цель</t>
   </si>
+  <si>
+    <t xml:space="preserve">URL: http://www.who.int/hrh/statistics/hwfstats/en/ </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,12 +340,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -366,9 +358,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -397,10 +386,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка 2" xfId="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,255 +675,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="AD38" sqref="AD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="0.140625" customWidth="1"/>
-    <col min="4" max="23" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="126.5703125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="0.15625" customWidth="1"/>
+    <col min="4" max="23" width="9.15625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="126.578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="10"/>
+    </row>
+    <row r="14" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="Z14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="12"/>
+    </row>
+    <row r="17" spans="1:25" ht="138.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:25" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="159" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="13"/>
-    </row>
-    <row r="14" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="Z14" s="15"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z16" s="15"/>
-    </row>
-    <row r="17" spans="1:25" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y17" s="13"/>
-    </row>
-    <row r="18" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:25" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="3"/>
-      <c r="K65" s="1"/>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="3"/>
+      <c r="K63" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
-    <hyperlink ref="B28" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/meta/3-c-1.xlsx
+++ b/meta/3-c-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
@@ -110,11 +110,6 @@
     <t>3.c. Существенно увеличить финансирование здравоохранения и набор, развитие, профессиональную подготовку и удержание медицинских кадров в развивающихся странах, особенно в наименее развитых странах и малых островных развивающихся государствах</t>
   </si>
   <si>
-    <t>3.c.1. Число медицинских работников на душу населения и их распределение
-1) Количество врачей и средних медицинских работников на 1000 населения; 
-2) численность среднего медицинского персонала на 1000 населения</t>
-  </si>
-  <si>
     <t>Национальный статистический комитет Кыргызской Республики
 Отдел социальной статистики</t>
   </si>
@@ -126,9 +121,6 @@
   </si>
   <si>
     <t>(0312) 32 46 52</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Количество врачей и средних медицинских работников на 1000 населения (или плотность врачей и средних медицинских работников) определяется следующим образом: 
@@ -168,17 +160,32 @@
 где  Ом  – обеспеченность населения медицинскими кадрами; 
   Н  -  численность постоянного населения.    </t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.c.1. Число медицинских работников на душу населения и их распределение
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,25 +252,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -550,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,8 +602,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -618,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -626,15 +641,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +693,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -700,7 +715,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
